--- a/Data/Gradient_Month_03.xlsx
+++ b/Data/Gradient_Month_03.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,131 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20.79930686950684</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.995251417160034</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.875397920608521</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.5693244934082</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18476</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20.72659873962402</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.061853170394897</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.844643115997314</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29.18489074707031</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18568</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20.66297912597656</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.103049278259277</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.417493343353271</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29.30961799621582</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18438</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20.60930633544922</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.153537034988403</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.420910358428955</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30.0135612487793</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18366</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20.6399040222168</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.150049686431885</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.520009279251099</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30.31769180297852</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18392</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
